--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N2">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O2">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P2">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q2">
-        <v>0.08630826113050001</v>
+        <v>1.2023117569405</v>
       </c>
       <c r="R2">
-        <v>0.345233044522</v>
+        <v>4.809247027762</v>
       </c>
       <c r="S2">
-        <v>0.000354241272673421</v>
+        <v>0.005677294802950382</v>
       </c>
       <c r="T2">
-        <v>0.0002686879899756978</v>
+        <v>0.00431030258734052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P3">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q3">
-        <v>0.2899089074490001</v>
+        <v>1.0903838719305</v>
       </c>
       <c r="R3">
-        <v>1.739453444694</v>
+        <v>6.542303231583001</v>
       </c>
       <c r="S3">
-        <v>0.001189894211619136</v>
+        <v>0.005148773314073394</v>
       </c>
       <c r="T3">
-        <v>0.00135378190798115</v>
+        <v>0.005863559593315608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H4">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I4">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J4">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N4">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O4">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P4">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q4">
-        <v>30.66644069803951</v>
+        <v>42.04915068748075</v>
       </c>
       <c r="R4">
-        <v>122.665762792158</v>
+        <v>168.196602749923</v>
       </c>
       <c r="S4">
-        <v>0.125866502684047</v>
+        <v>0.1985553441430133</v>
       </c>
       <c r="T4">
-        <v>0.0954683155811302</v>
+        <v>0.1507467276747999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1.389289</v>
       </c>
       <c r="I5">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J5">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N5">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O5">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P5">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q5">
-        <v>0.008891218051833334</v>
+        <v>0.03293124335966666</v>
       </c>
       <c r="R5">
-        <v>0.05334730831100001</v>
+        <v>0.197587460158</v>
       </c>
       <c r="S5">
-        <v>3.649287283793165E-05</v>
+        <v>0.0001555007473737796</v>
       </c>
       <c r="T5">
-        <v>4.151914559784558E-05</v>
+        <v>0.0001770883749220495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1.389289</v>
       </c>
       <c r="I6">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J6">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,10 +815,10 @@
         <v>0.193473</v>
       </c>
       <c r="O6">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P6">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q6">
         <v>0.029865545633</v>
@@ -827,10 +827,10 @@
         <v>0.268789910697</v>
       </c>
       <c r="S6">
-        <v>0.0001225793308258575</v>
+        <v>0.0001410245770539357</v>
       </c>
       <c r="T6">
-        <v>0.0002091938242207343</v>
+        <v>0.0002409037923900218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1.389289</v>
       </c>
       <c r="I7">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J7">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N7">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O7">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P7">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q7">
-        <v>3.159164691171501</v>
+        <v>1.151723591126167</v>
       </c>
       <c r="R7">
-        <v>18.954988147029</v>
+        <v>6.910341546757</v>
       </c>
       <c r="S7">
-        <v>0.01296638938297475</v>
+        <v>0.005438418380749081</v>
       </c>
       <c r="T7">
-        <v>0.0147522890582215</v>
+        <v>0.006193415076508193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H8">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I8">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J8">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N8">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O8">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P8">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q8">
-        <v>0.1305239544501667</v>
+        <v>0.5309173334033334</v>
       </c>
       <c r="R8">
-        <v>0.7831437267010002</v>
+        <v>3.18550400042</v>
       </c>
       <c r="S8">
-        <v>0.0005357189582221262</v>
+        <v>0.002506982236784519</v>
       </c>
       <c r="T8">
-        <v>0.0006095051361051267</v>
+        <v>0.002855017855338455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H9">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I9">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J9">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.193473</v>
       </c>
       <c r="O9">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P9">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q9">
-        <v>0.4384291438030001</v>
+        <v>0.4814921706700001</v>
       </c>
       <c r="R9">
-        <v>3.945862294227001</v>
+        <v>4.333429536030001</v>
       </c>
       <c r="S9">
-        <v>0.001799476618386059</v>
+        <v>0.002273597494515201</v>
       </c>
       <c r="T9">
-        <v>0.003070985890196806</v>
+        <v>0.003883849682369091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H10">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I10">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J10">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N10">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O10">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P10">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q10">
-        <v>46.37684801420652</v>
+        <v>18.56808171923834</v>
       </c>
       <c r="R10">
-        <v>278.2610880852391</v>
+        <v>111.40849031543</v>
       </c>
       <c r="S10">
-        <v>0.1903478699251505</v>
+        <v>0.0876781527227523</v>
       </c>
       <c r="T10">
-        <v>0.2165650525997346</v>
+        <v>0.09985020550748544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H11">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I11">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J11">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N11">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O11">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P11">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q11">
-        <v>0.1680108886025</v>
+        <v>1.0813941147635</v>
       </c>
       <c r="R11">
-        <v>0.6720435544100001</v>
+        <v>4.325576459053999</v>
       </c>
       <c r="S11">
-        <v>0.0006895793081910418</v>
+        <v>0.005106323840091812</v>
       </c>
       <c r="T11">
-        <v>0.0005230380888381022</v>
+        <v>0.003876811337735754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H12">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I12">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J12">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1187,22 @@
         <v>0.193473</v>
       </c>
       <c r="O12">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P12">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q12">
-        <v>0.564347520345</v>
+        <v>0.9807229240935</v>
       </c>
       <c r="R12">
-        <v>3.38608512207</v>
+        <v>5.884337544561</v>
       </c>
       <c r="S12">
-        <v>0.002316292568272532</v>
+        <v>0.004630956262341425</v>
       </c>
       <c r="T12">
-        <v>0.002635322486569289</v>
+        <v>0.005273855802518244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H13">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I13">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J13">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N13">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O13">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P13">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q13">
-        <v>59.69644023024751</v>
+        <v>37.82022742583525</v>
       </c>
       <c r="R13">
-        <v>238.78576092099</v>
+        <v>151.280909703341</v>
       </c>
       <c r="S13">
-        <v>0.2450164408857808</v>
+        <v>0.1785864434674424</v>
       </c>
       <c r="T13">
-        <v>0.1858421931351064</v>
+        <v>0.1355859852374811</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H14">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I14">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J14">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N14">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O14">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P14">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q14">
-        <v>0.1205580251863333</v>
+        <v>2.516597881143</v>
       </c>
       <c r="R14">
-        <v>0.723348151118</v>
+        <v>15.099587286858</v>
       </c>
       <c r="S14">
-        <v>0.0004948150700015575</v>
+        <v>0.01188333058314771</v>
       </c>
       <c r="T14">
-        <v>0.0005629674327543907</v>
+        <v>0.01353305200889317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H15">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I15">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J15">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.193473</v>
       </c>
       <c r="O15">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P15">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q15">
-        <v>0.404953649954</v>
+        <v>2.282317981083</v>
       </c>
       <c r="R15">
-        <v>3.644582849586</v>
+        <v>20.540861829747</v>
       </c>
       <c r="S15">
-        <v>0.001662080714574361</v>
+        <v>0.0107770650481329</v>
       </c>
       <c r="T15">
-        <v>0.002836506109984381</v>
+        <v>0.01840981121989979</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H16">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I16">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J16">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N16">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O16">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P16">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q16">
-        <v>42.835824538967</v>
+        <v>88.01444626413451</v>
       </c>
       <c r="R16">
-        <v>257.014947233802</v>
+        <v>528.086677584807</v>
       </c>
       <c r="S16">
-        <v>0.1758141897651637</v>
+        <v>0.4156026550313895</v>
       </c>
       <c r="T16">
-        <v>0.2000296051079769</v>
+        <v>0.4732993251530055</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H17">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I17">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J17">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.0191995</v>
+        <v>0.07111099999999999</v>
       </c>
       <c r="N17">
-        <v>0.038399</v>
+        <v>0.142222</v>
       </c>
       <c r="O17">
-        <v>0.002780311579676609</v>
+        <v>0.02711460746047303</v>
       </c>
       <c r="P17">
-        <v>0.002767389187860387</v>
+        <v>0.02678527708115022</v>
       </c>
       <c r="Q17">
-        <v>0.163109966634</v>
+        <v>0.3780563218786666</v>
       </c>
       <c r="R17">
-        <v>0.9786597998040002</v>
+        <v>2.268337931272</v>
       </c>
       <c r="S17">
-        <v>0.0006694640977505309</v>
+        <v>0.001785175250124838</v>
       </c>
       <c r="T17">
-        <v>0.0007616713945892244</v>
+        <v>0.002033004916920271</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H18">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I18">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J18">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,22 +1559,22 @@
         <v>0.193473</v>
       </c>
       <c r="O18">
-        <v>0.009339049146327988</v>
+        <v>0.0245904030281302</v>
       </c>
       <c r="P18">
-        <v>0.01394346436998132</v>
+        <v>0.03643759694506741</v>
       </c>
       <c r="Q18">
-        <v>0.5478853542120001</v>
+        <v>0.342861586172</v>
       </c>
       <c r="R18">
-        <v>4.930968187908</v>
+        <v>3.085754275548</v>
       </c>
       <c r="S18">
-        <v>0.002248725702650042</v>
+        <v>0.001618986332013345</v>
       </c>
       <c r="T18">
-        <v>0.003837674151028959</v>
+        <v>0.002765616854574648</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.495532000000001</v>
+        <v>5.316425333333333</v>
       </c>
       <c r="H19">
-        <v>25.486596</v>
+        <v>15.949276</v>
       </c>
       <c r="I19">
-        <v>0.2407874364312792</v>
+        <v>0.06583813734818843</v>
       </c>
       <c r="J19">
-        <v>0.275231036505607</v>
+        <v>0.07590008909599709</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.821830500000001</v>
+        <v>2.4870065</v>
       </c>
       <c r="N19">
-        <v>13.643661</v>
+        <v>4.974013</v>
       </c>
       <c r="O19">
-        <v>0.9878806392739954</v>
+        <v>0.9482949895113968</v>
       </c>
       <c r="P19">
-        <v>0.9832891464421584</v>
+        <v>0.9367771259737823</v>
       </c>
       <c r="Q19">
-        <v>57.95507931132601</v>
+        <v>13.22198436076467</v>
       </c>
       <c r="R19">
-        <v>347.730475867956</v>
+        <v>79.33190616458801</v>
       </c>
       <c r="S19">
-        <v>0.2378692466308786</v>
+        <v>0.06243397576605025</v>
       </c>
       <c r="T19">
-        <v>0.2706316909599888</v>
+        <v>0.07110146732450216</v>
       </c>
     </row>
   </sheetData>
